--- a/laidoff/data/ttl.xlsx
+++ b/laidoff/data/ttl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\w\src\github.com\lache\lo\laidoff\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7191603C-CBEA-4EC6-B95E-FF515B809AA6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B4DB82-D9C8-4CA2-B6E6-9085234FD183}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12315" xr2:uid="{65DB7D7A-0358-4C78-AD7B-5E08EFDB0C3F}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12315" xr2:uid="{65DB7D7A-0358-4C78-AD7B-5E08EFDB0C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Captain" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,31 +43,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture</t>
+    <t>portrait</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>captain1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>captain2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>captain3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>captain4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>captain5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>captain6</t>
+    <t>atlas/captain/01.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/02.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/03.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/04.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/05.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/06.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/07.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/08.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/09.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/10.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/11.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/12.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/13.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/14.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/15.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/16.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/17.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/18.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/19.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/20.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/21.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/22.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/23.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/24.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/25.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/26.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/27.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/28.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/29.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/30.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/31.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/32.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/33.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/34.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/35.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/36.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/37.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/38.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/39.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/40.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/41.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/42.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/43.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/44.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/45.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/46.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/47.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/48.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/49.png</t>
+  </si>
+  <si>
+    <t>atlas/captain/50.png</t>
+  </si>
+  <si>
+    <t>salary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,13 +562,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60689703-6B98-4C81-861B-1F96197A3FBC}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,16 +586,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -466,13 +609,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -483,13 +629,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -500,13 +649,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -514,16 +666,19 @@
         <v>1200</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -531,16 +686,19 @@
         <v>1400</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -548,13 +706,896 @@
         <v>1600</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1800</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2200</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2400</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2600</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2800</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3000</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3200</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3400</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3600</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3800</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4000</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4200</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4400</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4600</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4800</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5000</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5200</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5400</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5600</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5800</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6000</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6200</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6400</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6600</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6800</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7000</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7200</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7400</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7600</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7800</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>8000</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>8200</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>8400</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>8600</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>8800</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>9000</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>9200</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>9400</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>9600</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>9800</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>10000</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>10200</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>10400</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
